--- a/authors_licences/licences and authors.xlsx
+++ b/authors_licences/licences and authors.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
   <si>
     <t>Hero sprites</t>
   </si>
@@ -48,6 +48,18 @@
   </si>
   <si>
     <t>www.tinyworlds.org</t>
+  </si>
+  <si>
+    <t>trees</t>
+  </si>
+  <si>
+    <t>http://www.dundjinni.com/forums/forum_posts.asp?TID=8301&amp;PN=1&amp;TPN=7</t>
+  </si>
+  <si>
+    <t>Site</t>
+  </si>
+  <si>
+    <t>http://opengameart.org</t>
   </si>
 </sst>
 </file>
@@ -400,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D4"/>
+  <dimension ref="B2:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="B2:D2"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,6 +458,14 @@
         <v>6</v>
       </c>
     </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -453,10 +473,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D4"/>
+  <dimension ref="B2:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,9 +484,10 @@
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
     <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -476,23 +497,59 @@
       <c r="D2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E9" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E4:E9" r:id="rId3" display="http://opengameart.org"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
